--- a/Data/EmploymentModule.xlsx
+++ b/Data/EmploymentModule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0F7B50-FB6B-714D-BD30-995A18D7FEBF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74CEE7F-781F-4146-B42C-1D59A37BC41D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36020" yWindow="3440" windowWidth="26440" windowHeight="15040" xr2:uid="{4F2E58BF-7631-E146-A7F4-3F92A2ED3250}"/>
   </bookViews>
@@ -40,31 +40,32 @@
     <t>Are you supporting people outside your immediate family (partner and children) because of the COVID-19 pandemic? Select all that apply</t>
   </si>
   <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Occurrence</t>
+  </si>
+  <si>
+    <t>35, 39</t>
+  </si>
+  <si>
     <t xml:space="preserve">• Your/your partners' parents
 • Your/your partners' siblings
 • Other relatives
-• Your/your partners' friends                                              • Neighbors
+• Your/your partners' friends
+• Neighbors
 • Other non-relative people
 • Not supporting anyone outside immediate family
 </t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Answers</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Source Link</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
-  </si>
-  <si>
-    <t>35, 39</t>
   </si>
 </sst>
 </file>
@@ -434,7 +435,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,22 +448,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,22 +475,22 @@
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="388" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="2" customFormat="1" ht="238" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/EmploymentModule.xlsx
+++ b/Data/EmploymentModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abautist/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BDE56F-F286-9747-846D-C8D22119B36C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD785E1E-F961-7C40-BBA8-36A58F690093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4780" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13220" yWindow="500" windowWidth="15580" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Question</t>
   </si>
@@ -60,7 +60,10 @@
 </t>
   </si>
   <si>
-    <t>35, 39, 43, 47, 51, 55, 59</t>
+    <t>35, 39, 43, 47, 51, 55, 59, 67</t>
+  </si>
+  <si>
+    <t>35, 39, 43, 47, 51, 55, 59,67</t>
   </si>
 </sst>
 </file>
@@ -140,7 +143,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1303,8 +1308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1367,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/EmploymentModule.xlsx
+++ b/Data/EmploymentModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD785E1E-F961-7C40-BBA8-36A58F690093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E0B3E24-C8D3-B647-A994-4A39591DA55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="500" windowWidth="15580" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="660" windowWidth="15580" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -60,10 +60,7 @@
 </t>
   </si>
   <si>
-    <t>35, 39, 43, 47, 51, 55, 59, 67</t>
-  </si>
-  <si>
-    <t>35, 39, 43, 47, 51, 55, 59,67</t>
+    <t>35, 39, 43, 47, 51, 55, 59, 67, 71, 75</t>
   </si>
 </sst>
 </file>
@@ -1308,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1364,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">

--- a/Data/EmploymentModule.xlsx
+++ b/Data/EmploymentModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E0B3E24-C8D3-B647-A994-4A39591DA55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D947C9E-5ADF-9F4E-BA03-4F930195145A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="660" windowWidth="15580" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13220" yWindow="560" windowWidth="15580" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </t>
   </si>
   <si>
-    <t>35, 39, 43, 47, 51, 55, 59, 67, 71, 75</t>
+    <t>35, 39, 43, 47, 51, 55, 59, 67, 71, 75, 83, 87</t>
   </si>
 </sst>
 </file>

--- a/Data/EmploymentModule.xlsx
+++ b/Data/EmploymentModule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D947C9E-5ADF-9F4E-BA03-4F930195145A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D43A35D-C0B4-5D4C-8854-242082F9E31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="560" windowWidth="15580" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="560" windowWidth="15580" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Data/EmploymentModule.xlsx
+++ b/Data/EmploymentModule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D43A35D-C0B4-5D4C-8854-242082F9E31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BBE6F27-FA6E-8940-B781-51F7D0B8806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="560" windowWidth="15580" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Question</t>
   </si>
@@ -61,6 +61,16 @@
   </si>
   <si>
     <t>35, 39, 43, 47, 51, 55, 59, 67, 71, 75, 83, 87</t>
+  </si>
+  <si>
+    <t>To the best of your knowledge, what is your current total household income before taxes and deductions, from all sources*?
+*Sources of income can include wages, salary, commissions, bonuses, or tips from all jobs, self-employment income, Social Security, Supplemental Security Income (SSI), any public assistance or welfare payments, retirement income, disability income, or any other sources of income received regularly, such as Veterans' (VA) payments, unemployment compensation, child support, or alimony.
+You may respond with your household income weekly, monthly, or yearly, whatever is easiest for you. Please do not include any dollar signs or commas in your response. You only need to fill out one of these.</t>
+  </si>
+  <si>
+    <t>• Weekly
+• Monthly
+• Yearly</t>
   </si>
 </sst>
 </file>
@@ -127,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -141,6 +151,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1367,9 +1380,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+    <row r="4" spans="1:5" ht="371" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>

--- a/Data/EmploymentModule.xlsx
+++ b/Data/EmploymentModule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,18 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,7 +45,7 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>Currently, is your family supporting other people who you did not provide support before COVID-19?</t>
@@ -45,6 +56,9 @@
   </si>
   <si>
     <t>Developed by RAPID Team</t>
+  </si>
+  <si>
+    <t>12/01/2020-12/03/2020 01/05/2021-01/07/2021 02/03/2021-02/06/2021 03/02/2021-03/05/2021 03/31/2021-04/02/2021  04/28/2021-05/01/2021 05/25/2021-05/28/2021 07/21/2021-07/23/2021 08/16/2021-08/20/2021 09/15/2021-09/17/2021 11/10/2021-11/16/2021 12/08/2021-12/14/2021</t>
   </si>
   <si>
     <t>Are you supporting people outside your immediate family (partner and children) because of the COVID-19 pandemic? Select all that apply</t>
@@ -58,9 +72,6 @@
 • Other non-relative people
 • Not supporting anyone outside immediate family
 </t>
-  </si>
-  <si>
-    <t>35, 39, 43, 47, 51, 55, 59, 67, 71, 75, 83, 87</t>
   </si>
   <si>
     <t>To the best of your knowledge, what is your current total household income before taxes and deductions, from all sources*?
@@ -77,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -137,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -150,11 +161,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1318,22 +1332,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="23.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="204.75">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1361,72 +1375,72 @@
         <v>7</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="238" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="204.75">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="371" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:5" ht="346.5">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
